--- a/biology/Zoologie/Gophère_du_Texas/Gophère_du_Texas.xlsx
+++ b/biology/Zoologie/Gophère_du_Texas/Gophère_du_Texas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Goph%C3%A8re_du_Texas</t>
+          <t>Gophère_du_Texas</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gopherus berlandieri
-Gopherus berlandieri, le Gophère du Texas, est une espèce de tortues de la famille des Testudinidae[1].
+Gopherus berlandieri, le Gophère du Texas, est une espèce de tortues de la famille des Testudinidae.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Goph%C3%A8re_du_Texas</t>
+          <t>Gophère_du_Texas</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre aux États-Unis au Texas et au Mexique dans les États du Tamaulipas, du Coahuila, du Nuevo León et de San Luis Potosí[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre aux États-Unis au Texas et au Mexique dans les États du Tamaulipas, du Coahuila, du Nuevo León et de San Luis Potosí.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Goph%C3%A8re_du_Texas</t>
+          <t>Gophère_du_Texas</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Jean-Louis Berlandier (1805-1851)[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Jean-Louis Berlandier (1805-1851).
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Goph%C3%A8re_du_Texas</t>
+          <t>Gophère_du_Texas</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Agassiz, 1857 : Contributions to the Natural History of the United States of America. Little, Brown &amp; Co., Boston, vol. 1, p. 1-452 (texte intégral).</t>
         </is>
